--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Fgf5-Fgfr1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Fgf5-Fgfr1.xlsx
@@ -540,10 +540,10 @@
         <v>0.5</v>
       </c>
       <c r="G2">
-        <v>1.2512335</v>
+        <v>0.2284785</v>
       </c>
       <c r="H2">
-        <v>2.502467</v>
+        <v>0.456957</v>
       </c>
       <c r="I2">
         <v>1</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>6.743825</v>
+        <v>5.978421000000001</v>
       </c>
       <c r="N2">
-        <v>20.231475</v>
+        <v>17.935263</v>
       </c>
       <c r="O2">
-        <v>0.06175298453338176</v>
+        <v>0.05704457007880161</v>
       </c>
       <c r="P2">
-        <v>0.06809253940846915</v>
+        <v>0.06242884486533885</v>
       </c>
       <c r="Q2">
-        <v>8.438099758137499</v>
+        <v>1.3659406624485</v>
       </c>
       <c r="R2">
-        <v>50.628598548825</v>
+        <v>8.195643974691</v>
       </c>
       <c r="S2">
-        <v>0.06175298453338176</v>
+        <v>0.05704457007880161</v>
       </c>
       <c r="T2">
-        <v>0.06809253940846915</v>
+        <v>0.06242884486533885</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,10 +602,10 @@
         <v>0.5</v>
       </c>
       <c r="G3">
-        <v>1.2512335</v>
+        <v>0.2284785</v>
       </c>
       <c r="H3">
-        <v>2.502467</v>
+        <v>0.456957</v>
       </c>
       <c r="I3">
         <v>1</v>
@@ -626,22 +626,22 @@
         <v>208.973595</v>
       </c>
       <c r="O3">
-        <v>0.6378547871531949</v>
+        <v>0.6646576013185088</v>
       </c>
       <c r="P3">
-        <v>0.7033368922862506</v>
+        <v>0.7273927426214574</v>
       </c>
       <c r="Q3">
-        <v>87.1582542264775</v>
+        <v>15.9153245084025</v>
       </c>
       <c r="R3">
-        <v>522.9495253588649</v>
+        <v>95.49194705041499</v>
       </c>
       <c r="S3">
-        <v>0.6378547871531949</v>
+        <v>0.6646576013185088</v>
       </c>
       <c r="T3">
-        <v>0.7033368922862506</v>
+        <v>0.7273927426214574</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,10 +664,10 @@
         <v>0.5</v>
       </c>
       <c r="G4">
-        <v>1.2512335</v>
+        <v>0.2284785</v>
       </c>
       <c r="H4">
-        <v>2.502467</v>
+        <v>0.456957</v>
       </c>
       <c r="I4">
         <v>1</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.263827666666667</v>
+        <v>1.290243</v>
       </c>
       <c r="N4">
-        <v>3.791482999999999</v>
+        <v>3.870729</v>
       </c>
       <c r="O4">
-        <v>0.01157282852869501</v>
+        <v>0.01231116999491725</v>
       </c>
       <c r="P4">
-        <v>0.01276089388411081</v>
+        <v>0.01347318632889677</v>
       </c>
       <c r="Q4">
-        <v>1.581343514760166</v>
+        <v>0.2947927852755</v>
       </c>
       <c r="R4">
-        <v>9.488061088560999</v>
+        <v>1.768756711653</v>
       </c>
       <c r="S4">
-        <v>0.01157282852869501</v>
+        <v>0.01231116999491725</v>
       </c>
       <c r="T4">
-        <v>0.01276089388411081</v>
+        <v>0.01347318632889677</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>0.5</v>
       </c>
       <c r="G5">
-        <v>1.2512335</v>
+        <v>0.2284785</v>
       </c>
       <c r="H5">
-        <v>2.502467</v>
+        <v>0.456957</v>
       </c>
       <c r="I5">
         <v>1</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>30.502036</v>
+        <v>27.1166075</v>
       </c>
       <c r="N5">
-        <v>61.004072</v>
+        <v>54.233215</v>
       </c>
       <c r="O5">
-        <v>0.2793061441162328</v>
+        <v>0.2587397603536297</v>
       </c>
       <c r="P5">
-        <v>0.205319788929729</v>
+        <v>0.1887743138075849</v>
       </c>
       <c r="Q5">
-        <v>38.165169261406</v>
+        <v>6.19556180668875</v>
       </c>
       <c r="R5">
-        <v>152.660677045624</v>
+        <v>24.782247226755</v>
       </c>
       <c r="S5">
-        <v>0.2793061441162328</v>
+        <v>0.2587397603536297</v>
       </c>
       <c r="T5">
-        <v>0.205319788929729</v>
+        <v>0.1887743138075849</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>0.5</v>
       </c>
       <c r="G6">
-        <v>1.2512335</v>
+        <v>0.2284785</v>
       </c>
       <c r="H6">
-        <v>2.502467</v>
+        <v>0.456957</v>
       </c>
       <c r="I6">
         <v>1</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>1.038909</v>
+        <v>0.759494</v>
       </c>
       <c r="N6">
-        <v>3.116727</v>
+        <v>2.278482</v>
       </c>
       <c r="O6">
-        <v>0.009513255668495419</v>
+        <v>0.00724689825414258</v>
       </c>
       <c r="P6">
-        <v>0.01048988549144043</v>
+        <v>0.007930912376722157</v>
       </c>
       <c r="Q6">
-        <v>1.2999177442515</v>
+        <v>0.173528049879</v>
       </c>
       <c r="R6">
-        <v>7.799506465508999</v>
+        <v>1.041168299274</v>
       </c>
       <c r="S6">
-        <v>0.009513255668495419</v>
+        <v>0.00724689825414258</v>
       </c>
       <c r="T6">
-        <v>0.01048988549144043</v>
+        <v>0.007930912376722157</v>
       </c>
     </row>
   </sheetData>
